--- a/data-raw/model-runs/ira_comparison.xlsx
+++ b/data-raw/model-runs/ira_comparison.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\Git Repos\LEEP\data-raw\model-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcole\Documents\LEEP\LEEP\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E22B6D-7823-4F2F-8809-25FF7FB5B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35394F0C-9615-4EC4-A952-B5B5018B94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="811" activeTab="7" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="31500" windowHeight="18870" tabRatio="811" xr2:uid="{5F00DDB9-0E99-47E0-A966-ACC1987AA917}"/>
   </bookViews>
   <sheets>
-    <sheet name="Emissions" sheetId="1" r:id="rId1"/>
-    <sheet name="CO2 Captured" sheetId="7" r:id="rId2"/>
-    <sheet name="Costs" sheetId="8" r:id="rId3"/>
-    <sheet name="Electricity Demand" sheetId="9" r:id="rId4"/>
-    <sheet name="NOx" sheetId="10" r:id="rId5"/>
-    <sheet name="SO2" sheetId="11" r:id="rId6"/>
-    <sheet name="Fossil Fuel Consumption" sheetId="12" r:id="rId7"/>
-    <sheet name="Generation and Capacity" sheetId="13" r:id="rId8"/>
+    <sheet name="data" sheetId="14" r:id="rId1"/>
+    <sheet name="Emissions" sheetId="1" r:id="rId2"/>
+    <sheet name="CO2 Captured" sheetId="7" r:id="rId3"/>
+    <sheet name="Costs" sheetId="8" r:id="rId4"/>
+    <sheet name="Electricity Demand" sheetId="9" r:id="rId5"/>
+    <sheet name="NOx" sheetId="10" r:id="rId6"/>
+    <sheet name="SO2" sheetId="11" r:id="rId7"/>
+    <sheet name="Fossil Fuel Consumption" sheetId="12" r:id="rId8"/>
+    <sheet name="Generation and Capacity" sheetId="13" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Emissions!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Emissions!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -660,23 +661,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4841588-1144-4254-A6CA-35B7E11E9166}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BA7B03-7E95-44A8-8E57-7EF481135E5D}">
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -708,7 +723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,7 +755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -772,7 +787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,7 +813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -824,7 +839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -844,7 +859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -864,7 +879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -884,7 +899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -904,7 +919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -936,7 +951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -968,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -1060,7 +1075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1124,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1188,7 +1203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1428,7 +1443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1492,7 +1507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -1544,7 +1559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -1600,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -1728,7 +1743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -1844,7 +1859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -1884,7 +1899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -1924,7 +1939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -1988,7 +2003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -2208,7 +2223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
@@ -2272,7 +2287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>52</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>52</v>
       </c>
@@ -2364,7 +2379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>52</v>
       </c>
@@ -2404,7 +2419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +2451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
@@ -2468,7 +2483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>52</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>52</v>
       </c>
@@ -2560,7 +2575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -2640,7 +2655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>52</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>52</v>
       </c>
@@ -2744,7 +2759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>52</v>
       </c>
@@ -2784,7 +2799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>52</v>
       </c>
@@ -2824,7 +2839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>52</v>
       </c>
@@ -2888,7 +2903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>52</v>
       </c>
@@ -2928,7 +2943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>0</v>
       </c>
@@ -2948,7 +2963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>52</v>
       </c>
@@ -2968,7 +2983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +3003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
@@ -3008,7 +3023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +3043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>52</v>
       </c>
@@ -3048,7 +3063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>52</v>
       </c>
@@ -3112,7 +3127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>0</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>52</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>52</v>
       </c>
@@ -3204,7 +3219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>52</v>
       </c>
@@ -3244,7 +3259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>52</v>
       </c>
@@ -3308,7 +3323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>52</v>
       </c>
@@ -3360,7 +3375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
@@ -3380,7 +3395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>52</v>
       </c>
@@ -3400,7 +3415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>52</v>
       </c>
@@ -3440,7 +3455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>52</v>
       </c>
@@ -3480,7 +3495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>0</v>
       </c>
@@ -3512,7 +3527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>52</v>
       </c>
@@ -3544,7 +3559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>52</v>
       </c>
@@ -3596,7 +3611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>52</v>
       </c>
@@ -3636,7 +3651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>52</v>
       </c>
@@ -3676,7 +3691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +3723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>52</v>
       </c>
@@ -3740,7 +3755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>52</v>
       </c>
@@ -3792,7 +3807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>52</v>
       </c>
@@ -3832,7 +3847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>52</v>
       </c>
@@ -3896,7 +3911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>52</v>
       </c>
@@ -3960,7 +3975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>0</v>
       </c>
@@ -3992,7 +4007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>52</v>
       </c>
@@ -4024,7 +4039,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +4065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>52</v>
       </c>
@@ -4076,7 +4091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>52</v>
       </c>
@@ -4116,7 +4131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>52</v>
       </c>
@@ -4156,7 +4171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>0</v>
       </c>
@@ -4188,7 +4203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>52</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>0</v>
       </c>
@@ -4246,7 +4261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>52</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>0</v>
       </c>
@@ -4292,7 +4307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>52</v>
       </c>
@@ -4312,7 +4327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>0</v>
       </c>
@@ -4332,7 +4347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>52</v>
       </c>
@@ -4352,7 +4367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>0</v>
       </c>
@@ -4372,7 +4387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>52</v>
       </c>
@@ -4398,7 +4413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690E30FA-4CD4-4165-8253-140D940C5DE0}">
   <dimension ref="A1:J145"/>
   <sheetViews>
@@ -4406,16 +4421,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4447,7 +4462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -4479,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -4511,7 +4526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -4543,7 +4558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -4575,7 +4590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -4607,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -4639,7 +4654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -4671,7 +4686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -4703,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -4726,7 +4741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -4749,7 +4764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -4772,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -4795,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -4818,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -4841,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -4864,7 +4879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -4887,7 +4902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -4919,7 +4934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -4951,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -4983,7 +4998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -5015,7 +5030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -5079,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -5111,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -5143,7 +5158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -5175,7 +5190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -5207,7 +5222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -5239,7 +5254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -5271,7 +5286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -5303,7 +5318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -5335,7 +5350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -5367,7 +5382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -5399,7 +5414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -5431,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -5463,7 +5478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -5495,7 +5510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -5527,7 +5542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
@@ -5559,7 +5574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -5591,7 +5606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -5623,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -5655,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -5678,7 +5693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -5701,7 +5716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -5715,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -5738,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -5761,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -5784,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -5807,7 +5822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -5821,7 +5836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -5850,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -5879,7 +5894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -5908,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -5937,7 +5952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -5966,7 +5981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -5995,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -6024,7 +6039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
@@ -6053,7 +6068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -6085,7 +6100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>52</v>
       </c>
@@ -6117,7 +6132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -6149,7 +6164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>52</v>
       </c>
@@ -6181,7 +6196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>52</v>
       </c>
@@ -6213,7 +6228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>52</v>
       </c>
@@ -6245,7 +6260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>52</v>
       </c>
@@ -6277,7 +6292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
@@ -6309,7 +6324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
@@ -6341,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>52</v>
       </c>
@@ -6373,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -6405,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>52</v>
       </c>
@@ -6437,7 +6452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
@@ -6469,7 +6484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
@@ -6501,7 +6516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>52</v>
       </c>
@@ -6533,7 +6548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -6565,7 +6580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>0</v>
       </c>
@@ -6629,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
@@ -6661,7 +6676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
@@ -6725,7 +6740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>0</v>
       </c>
@@ -6757,7 +6772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>0</v>
       </c>
@@ -6789,7 +6804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
@@ -6847,7 +6862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -6873,7 +6888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>0</v>
       </c>
@@ -6899,7 +6914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>0</v>
       </c>
@@ -6925,7 +6940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>0</v>
       </c>
@@ -6951,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -6977,7 +6992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -7003,7 +7018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -7029,7 +7044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>0</v>
       </c>
@@ -7061,7 +7076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>0</v>
       </c>
@@ -7093,7 +7108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -7125,7 +7140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -7157,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>0</v>
       </c>
@@ -7189,7 +7204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>0</v>
       </c>
@@ -7221,7 +7236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
@@ -7253,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>0</v>
       </c>
@@ -7285,7 +7300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
@@ -7317,7 +7332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>0</v>
       </c>
@@ -7349,7 +7364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
@@ -7381,7 +7396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -7413,7 +7428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
@@ -7445,7 +7460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>0</v>
       </c>
@@ -7477,7 +7492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
@@ -7509,7 +7524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -7541,7 +7556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
@@ -7573,7 +7588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>0</v>
       </c>
@@ -7605,7 +7620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>0</v>
       </c>
@@ -7637,7 +7652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>0</v>
       </c>
@@ -7669,7 +7684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>0</v>
       </c>
@@ -7701,7 +7716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>0</v>
       </c>
@@ -7733,7 +7748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>0</v>
       </c>
@@ -7765,7 +7780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>0</v>
       </c>
@@ -7797,7 +7812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>0</v>
       </c>
@@ -7823,7 +7838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>0</v>
       </c>
@@ -7849,7 +7864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>0</v>
       </c>
@@ -7869,7 +7884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>0</v>
       </c>
@@ -7895,7 +7910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>0</v>
       </c>
@@ -7921,7 +7936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>0</v>
       </c>
@@ -7947,7 +7962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>0</v>
       </c>
@@ -7973,7 +7988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>0</v>
       </c>
@@ -7993,7 +8008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>0</v>
       </c>
@@ -8019,7 +8034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>0</v>
       </c>
@@ -8045,7 +8060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>0</v>
       </c>
@@ -8071,7 +8086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>0</v>
       </c>
@@ -8097,7 +8112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>0</v>
       </c>
@@ -8123,7 +8138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>0</v>
       </c>
@@ -8149,7 +8164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>0</v>
       </c>
@@ -8175,7 +8190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>0</v>
       </c>
@@ -8201,7 +8216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>0</v>
       </c>
@@ -8233,7 +8248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>0</v>
       </c>
@@ -8265,7 +8280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>0</v>
       </c>
@@ -8297,7 +8312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>0</v>
       </c>
@@ -8329,7 +8344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>0</v>
       </c>
@@ -8361,7 +8376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>0</v>
       </c>
@@ -8393,7 +8408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>0</v>
       </c>
@@ -8425,7 +8440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>0</v>
       </c>
@@ -8457,7 +8472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>0</v>
       </c>
@@ -8489,7 +8504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>0</v>
       </c>
@@ -8521,7 +8536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>0</v>
       </c>
@@ -8553,7 +8568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>0</v>
       </c>
@@ -8585,7 +8600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>0</v>
       </c>
@@ -8617,7 +8632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>0</v>
       </c>
@@ -8649,7 +8664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>0</v>
       </c>
@@ -8681,7 +8696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>0</v>
       </c>
@@ -8718,23 +8733,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BAA39A-0BF4-4085-9680-9F9D9D6B87A8}">
   <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8766,7 +8781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -8798,7 +8813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -8830,7 +8845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -8862,7 +8877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -8894,7 +8909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -8926,7 +8941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -8958,7 +8973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -8990,7 +9005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -9022,7 +9037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -9054,7 +9069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -9086,7 +9101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -9118,7 +9133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -9132,7 +9147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -9146,7 +9161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -9160,7 +9175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -9174,7 +9189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -9188,7 +9203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -9202,7 +9217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -9216,7 +9231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -9230,7 +9245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -9244,7 +9259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -9258,7 +9273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -9272,7 +9287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -9304,7 +9319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -9336,7 +9351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -9368,7 +9383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -9400,7 +9415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -9432,7 +9447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -9464,7 +9479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -9496,7 +9511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -9528,7 +9543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -9560,7 +9575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -9592,7 +9607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -9624,7 +9639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -9656,7 +9671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -9688,7 +9703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -9720,7 +9735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
@@ -9752,7 +9767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -9784,7 +9799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -9816,7 +9831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -9848,7 +9863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -9880,7 +9895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -9912,7 +9927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -9944,7 +9959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -9976,7 +9991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -10008,7 +10023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -10040,7 +10055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -10072,7 +10087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -10104,7 +10119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -10136,7 +10151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -10168,7 +10183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -10200,7 +10215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -10232,7 +10247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -10264,7 +10279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -10296,7 +10311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -10328,7 +10343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
@@ -10360,7 +10375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -10392,7 +10407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>52</v>
       </c>
@@ -10424,7 +10439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>52</v>
       </c>
@@ -10456,7 +10471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>52</v>
       </c>
@@ -10488,7 +10503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>52</v>
       </c>
@@ -10520,7 +10535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>52</v>
       </c>
@@ -10552,7 +10567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>52</v>
       </c>
@@ -10584,7 +10599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>52</v>
       </c>
@@ -10616,7 +10631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>52</v>
       </c>
@@ -10648,7 +10663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>52</v>
       </c>
@@ -10680,7 +10695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -10706,7 +10721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>52</v>
       </c>
@@ -10732,7 +10747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
@@ -10758,7 +10773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
@@ -10784,7 +10799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>52</v>
       </c>
@@ -10810,7 +10825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -10836,7 +10851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>52</v>
       </c>
@@ -10862,7 +10877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>52</v>
       </c>
@@ -10888,7 +10903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>52</v>
       </c>
@@ -10914,7 +10929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>52</v>
       </c>
@@ -10940,7 +10955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>52</v>
       </c>
@@ -10966,7 +10981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>52</v>
       </c>
@@ -10998,7 +11013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>52</v>
       </c>
@@ -11030,7 +11045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>52</v>
       </c>
@@ -11062,7 +11077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>52</v>
       </c>
@@ -11094,7 +11109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>52</v>
       </c>
@@ -11126,7 +11141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>52</v>
       </c>
@@ -11158,7 +11173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>52</v>
       </c>
@@ -11190,7 +11205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>52</v>
       </c>
@@ -11222,7 +11237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>52</v>
       </c>
@@ -11254,7 +11269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>52</v>
       </c>
@@ -11286,7 +11301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
@@ -11318,7 +11333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>52</v>
       </c>
@@ -11350,7 +11365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>52</v>
       </c>
@@ -11382,7 +11397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>52</v>
       </c>
@@ -11414,7 +11429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>52</v>
       </c>
@@ -11446,7 +11461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>52</v>
       </c>
@@ -11478,7 +11493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>52</v>
       </c>
@@ -11510,7 +11525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>52</v>
       </c>
@@ -11542,7 +11557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>52</v>
       </c>
@@ -11574,7 +11589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>52</v>
       </c>
@@ -11606,7 +11621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>52</v>
       </c>
@@ -11638,7 +11653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>52</v>
       </c>
@@ -11670,7 +11685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -11702,7 +11717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
@@ -11734,7 +11749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>0</v>
       </c>
@@ -11766,7 +11781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
@@ -11798,7 +11813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -11830,7 +11845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
@@ -11862,7 +11877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>0</v>
       </c>
@@ -11894,7 +11909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>0</v>
       </c>
@@ -11926,7 +11941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>0</v>
       </c>
@@ -11958,7 +11973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>0</v>
       </c>
@@ -11990,7 +12005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>0</v>
       </c>
@@ -12022,7 +12037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>0</v>
       </c>
@@ -12042,7 +12057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>0</v>
       </c>
@@ -12062,7 +12077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>0</v>
       </c>
@@ -12082,7 +12097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>0</v>
       </c>
@@ -12102,7 +12117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>0</v>
       </c>
@@ -12122,7 +12137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>0</v>
       </c>
@@ -12142,7 +12157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>0</v>
       </c>
@@ -12168,7 +12183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>0</v>
       </c>
@@ -12194,7 +12209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>0</v>
       </c>
@@ -12220,7 +12235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>0</v>
       </c>
@@ -12246,7 +12261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>0</v>
       </c>
@@ -12272,7 +12287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>0</v>
       </c>
@@ -12304,7 +12319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>0</v>
       </c>
@@ -12336,7 +12351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>0</v>
       </c>
@@ -12368,7 +12383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>0</v>
       </c>
@@ -12400,7 +12415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>0</v>
       </c>
@@ -12432,7 +12447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>0</v>
       </c>
@@ -12464,7 +12479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>0</v>
       </c>
@@ -12496,7 +12511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>0</v>
       </c>
@@ -12528,7 +12543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>0</v>
       </c>
@@ -12560,7 +12575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>0</v>
       </c>
@@ -12592,7 +12607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>0</v>
       </c>
@@ -12624,7 +12639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>0</v>
       </c>
@@ -12656,7 +12671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>0</v>
       </c>
@@ -12688,7 +12703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>0</v>
       </c>
@@ -12720,7 +12735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>0</v>
       </c>
@@ -12752,7 +12767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>0</v>
       </c>
@@ -12784,7 +12799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>0</v>
       </c>
@@ -12816,7 +12831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>0</v>
       </c>
@@ -12848,7 +12863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>0</v>
       </c>
@@ -12880,7 +12895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>0</v>
       </c>
@@ -12912,7 +12927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>0</v>
       </c>
@@ -12944,7 +12959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>0</v>
       </c>
@@ -12976,7 +12991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>0</v>
       </c>
@@ -13008,7 +13023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>0</v>
       </c>
@@ -13040,7 +13055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>0</v>
       </c>
@@ -13072,7 +13087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>0</v>
       </c>
@@ -13104,7 +13119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>0</v>
       </c>
@@ -13136,7 +13151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>0</v>
       </c>
@@ -13168,7 +13183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>0</v>
       </c>
@@ -13200,7 +13215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>0</v>
       </c>
@@ -13232,7 +13247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>0</v>
       </c>
@@ -13264,7 +13279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>0</v>
       </c>
@@ -13296,7 +13311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>0</v>
       </c>
@@ -13328,7 +13343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>0</v>
       </c>
@@ -13360,7 +13375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>0</v>
       </c>
@@ -13392,7 +13407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>0</v>
       </c>
@@ -13424,7 +13439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>0</v>
       </c>
@@ -13456,7 +13471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>0</v>
       </c>
@@ -13488,7 +13503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>0</v>
       </c>
@@ -13520,7 +13535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>0</v>
       </c>
@@ -13552,7 +13567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>0</v>
       </c>
@@ -13584,7 +13599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>0</v>
       </c>
@@ -13616,7 +13631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>0</v>
       </c>
@@ -13648,7 +13663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>0</v>
       </c>
@@ -13680,7 +13695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>0</v>
       </c>
@@ -13708,7 +13723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>0</v>
       </c>
@@ -13736,7 +13751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>0</v>
       </c>
@@ -13764,7 +13779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>0</v>
       </c>
@@ -13792,7 +13807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>0</v>
       </c>
@@ -13820,7 +13835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>0</v>
       </c>
@@ -13848,7 +13863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>0</v>
       </c>
@@ -13876,7 +13891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>0</v>
       </c>
@@ -13904,7 +13919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>0</v>
       </c>
@@ -13932,7 +13947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>0</v>
       </c>
@@ -13960,7 +13975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>0</v>
       </c>
@@ -13988,7 +14003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>0</v>
       </c>
@@ -14020,7 +14035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>0</v>
       </c>
@@ -14052,7 +14067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>0</v>
       </c>
@@ -14084,7 +14099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>0</v>
       </c>
@@ -14116,7 +14131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>0</v>
       </c>
@@ -14148,7 +14163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>0</v>
       </c>
@@ -14180,7 +14195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>0</v>
       </c>
@@ -14212,7 +14227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>0</v>
       </c>
@@ -14244,7 +14259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>0</v>
       </c>
@@ -14276,7 +14291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>0</v>
       </c>
@@ -14308,7 +14323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>0</v>
       </c>
@@ -14340,7 +14355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>0</v>
       </c>
@@ -14372,7 +14387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>0</v>
       </c>
@@ -14404,7 +14419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>0</v>
       </c>
@@ -14436,7 +14451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>0</v>
       </c>
@@ -14468,7 +14483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>0</v>
       </c>
@@ -14500,7 +14515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>0</v>
       </c>
@@ -14532,7 +14547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>0</v>
       </c>
@@ -14564,7 +14579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>0</v>
       </c>
@@ -14596,7 +14611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>0</v>
       </c>
@@ -14628,7 +14643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>0</v>
       </c>
@@ -14660,7 +14675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>0</v>
       </c>
@@ -14697,7 +14712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BA1F-1079-4F85-BE53-285F79BAFC0C}">
   <dimension ref="A1:J109"/>
   <sheetViews>
@@ -14705,17 +14720,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -14747,7 +14762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -14779,7 +14794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -14811,7 +14826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -14843,7 +14858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -14875,7 +14890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -14907,7 +14922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -14939,7 +14954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -14962,7 +14977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -14985,7 +15000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -15008,7 +15023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -15031,7 +15046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -15054,7 +15069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -15077,7 +15092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -15106,7 +15121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -15135,7 +15150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -15164,7 +15179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -15193,7 +15208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -15207,7 +15222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -15221,7 +15236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -15253,7 +15268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -15285,7 +15300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -15317,7 +15332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -15349,7 +15364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -15381,7 +15396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -15413,7 +15428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -15445,7 +15460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -15477,7 +15492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -15509,7 +15524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -15541,7 +15556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -15573,7 +15588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -15605,7 +15620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
@@ -15628,7 +15643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -15651,7 +15666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>52</v>
       </c>
@@ -15674,7 +15689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
@@ -15697,7 +15712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -15711,7 +15726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -15734,7 +15749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
@@ -15748,7 +15763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
@@ -15762,7 +15777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -15776,7 +15791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
@@ -15790,7 +15805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -15816,7 +15831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -15848,7 +15863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -15880,7 +15895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -15912,7 +15927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -15944,7 +15959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -15976,7 +15991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -16008,7 +16023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -16040,7 +16055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -16072,7 +16087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -16104,7 +16119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -16136,7 +16151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -16168,7 +16183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -16200,7 +16215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -16232,7 +16247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -16264,7 +16279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>0</v>
       </c>
@@ -16296,7 +16311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -16328,7 +16343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -16360,7 +16375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>0</v>
       </c>
@@ -16392,7 +16407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -16424,7 +16439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
@@ -16447,7 +16462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -16470,7 +16485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
@@ -16493,7 +16508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
@@ -16516,7 +16531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
@@ -16539,7 +16554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
@@ -16562,7 +16577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>0</v>
       </c>
@@ -16591,7 +16606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>0</v>
       </c>
@@ -16620,7 +16635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>0</v>
       </c>
@@ -16649,7 +16664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -16678,7 +16693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>0</v>
       </c>
@@ -16692,7 +16707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>0</v>
       </c>
@@ -16706,7 +16721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -16738,7 +16753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>0</v>
       </c>
@@ -16770,7 +16785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
@@ -16802,7 +16817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>0</v>
       </c>
@@ -16834,7 +16849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
@@ -16866,7 +16881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>0</v>
       </c>
@@ -16898,7 +16913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>0</v>
       </c>
@@ -16930,7 +16945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>0</v>
       </c>
@@ -16962,7 +16977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>0</v>
       </c>
@@ -16994,7 +17009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -17026,7 +17041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>0</v>
       </c>
@@ -17058,7 +17073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>0</v>
       </c>
@@ -17090,7 +17105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>0</v>
       </c>
@@ -17113,7 +17128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -17136,7 +17151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -17159,7 +17174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -17182,7 +17197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>0</v>
       </c>
@@ -17196,7 +17211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>0</v>
       </c>
@@ -17219,7 +17234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
@@ -17233,7 +17248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -17247,7 +17262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>0</v>
       </c>
@@ -17261,7 +17276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>0</v>
       </c>
@@ -17275,7 +17290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
@@ -17301,7 +17316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>0</v>
       </c>
@@ -17333,7 +17348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
@@ -17365,7 +17380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>0</v>
       </c>
@@ -17397,7 +17412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
@@ -17429,7 +17444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>0</v>
       </c>
@@ -17461,7 +17476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
@@ -17493,7 +17508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>0</v>
       </c>
@@ -17525,7 +17540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
@@ -17557,7 +17572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -17589,7 +17604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
@@ -17621,7 +17636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>0</v>
       </c>
@@ -17653,7 +17668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>0</v>
       </c>
@@ -17685,7 +17700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>0</v>
       </c>
@@ -17722,7 +17737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C08327-8546-4626-8135-5EE1E54ECCE3}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -17730,19 +17745,19 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="10" max="10" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -17774,7 +17789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -17806,7 +17821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -17826,7 +17841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -17840,7 +17855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -17854,7 +17869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -17886,7 +17901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -17900,7 +17915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -17914,7 +17929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -17946,7 +17961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -17960,7 +17975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -17992,7 +18007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -18012,7 +18027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -18026,7 +18041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -18040,7 +18055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -18072,7 +18087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -18086,7 +18101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -18100,7 +18115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -18132,7 +18147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -18151,7 +18166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE196EA-2BF1-4444-B476-59910DE1F6C3}">
   <dimension ref="A1:J37"/>
   <sheetViews>
@@ -18159,17 +18174,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="3"/>
+    <col min="10" max="10" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -18201,7 +18216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -18233,7 +18248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -18253,7 +18268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -18267,7 +18282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -18281,7 +18296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -18313,7 +18328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -18327,7 +18342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -18341,7 +18356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -18373,7 +18388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -18387,7 +18402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -18419,7 +18434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -18439,7 +18454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -18468,7 +18483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -18500,7 +18515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -18514,7 +18529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -18528,7 +18543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -18556,7 +18571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -18588,7 +18603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -18602,7 +18617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -18634,7 +18649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -18654,7 +18669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -18668,7 +18683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -18682,7 +18697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -18714,7 +18729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -18728,7 +18743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -18742,7 +18757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -18774,7 +18789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -18788,7 +18803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -18820,7 +18835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -18840,7 +18855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -18869,7 +18884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -18901,7 +18916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -18915,7 +18930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -18929,7 +18944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
@@ -18957,7 +18972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -18989,7 +19004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -19008,7 +19023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5018F82-05F8-4226-B359-1D0FB4A3757E}">
   <dimension ref="A1:K55"/>
   <sheetViews>
@@ -19016,18 +19031,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -19062,7 +19077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -19097,7 +19112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -19132,7 +19147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -19167,7 +19182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -19193,7 +19208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -19219,7 +19234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -19245,7 +19260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -19259,7 +19274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -19273,7 +19288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -19287,7 +19302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -19301,7 +19316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -19315,7 +19330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -19329,7 +19344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -19364,7 +19379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -19399,7 +19414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -19434,7 +19449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -19460,7 +19475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -19486,7 +19501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -19512,7 +19527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -19526,7 +19541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -19540,7 +19555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -19554,7 +19569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -19580,7 +19595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -19606,7 +19621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -19632,7 +19647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -19667,7 +19682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -19702,7 +19717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -19737,7 +19752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -19772,7 +19787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -19807,7 +19822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -19842,7 +19857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -19871,7 +19886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -19900,7 +19915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -19929,7 +19944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
@@ -19950,7 +19965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -19971,7 +19986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -19992,7 +20007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -20013,7 +20028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -20034,7 +20049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -20055,7 +20070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -20090,7 +20105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -20125,7 +20140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
@@ -20160,7 +20175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
@@ -20189,7 +20204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
@@ -20218,7 +20233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
@@ -20247,7 +20262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -20268,7 +20283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
@@ -20289,7 +20304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
@@ -20310,7 +20325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -20339,7 +20354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
@@ -20368,7 +20383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
@@ -20397,7 +20412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
@@ -20432,7 +20447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -20467,7 +20482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -20507,31 +20522,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E3A388-4F05-4E62-A94C-CB27D872236F}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -20593,7 +20608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -20645,7 +20660,7 @@
         <v>4143.83</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -20697,7 +20712,7 @@
         <v>4562.17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -20749,7 +20764,7 @@
         <v>4853.54</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -20803,7 +20818,7 @@
         <v>4493.872885996786</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -20857,7 +20872,7 @@
         <v>5079.1844868344415</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -20911,7 +20926,7 @@
         <v>5229.045010230906</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -20973,7 +20988,7 @@
         <v>4088.3048679128619</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -21035,7 +21050,7 @@
         <v>4442.7339296906512</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -21097,7 +21112,7 @@
         <v>4609.5170489952461</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -21159,7 +21174,7 @@
         <v>4194.3272957229001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -21221,7 +21236,7 @@
         <v>4295.4768508658699</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -21283,7 +21298,7 @@
         <v>4422.2604568606403</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -21343,7 +21358,7 @@
       </c>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -21403,7 +21418,7 @@
       </c>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -21463,7 +21478,7 @@
       </c>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -21525,7 +21540,7 @@
         <v>4107.0991210000002</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -21587,7 +21602,7 @@
         <v>4202.3701170000004</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -21649,7 +21664,7 @@
         <v>4434.4116210000002</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -21703,7 +21718,7 @@
         <v>4225.0640267205499</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -21757,7 +21772,7 @@
         <v>4500.8928345187896</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -21811,7 +21826,7 @@
         <v>4830.2657227754999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -21869,7 +21884,7 @@
         <v>4093.1034079668066</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -21927,7 +21942,7 @@
         <v>4125.365991489266</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -21985,7 +22000,7 @@
         <v>4405.555428097764</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -22047,7 +22062,7 @@
         <v>4629.5</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -22109,7 +22124,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -22171,7 +22186,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -22223,7 +22238,7 @@
         <v>4016.49</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -22275,7 +22290,7 @@
         <v>4220.92</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -22327,7 +22342,7 @@
         <v>4503.34</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -22381,7 +22396,7 @@
         <v>4366.4731375657702</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -22435,7 +22450,7 @@
         <v>4675.1017153540415</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -22489,7 +22504,7 @@
         <v>5039.2755907238443</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -22551,7 +22566,7 @@
         <v>4065.1946464285379</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -22613,7 +22628,7 @@
         <v>4168.6351705958286</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -22675,7 +22690,7 @@
         <v>4305.2596699382802</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -22737,7 +22752,7 @@
         <v>4194.3272957229001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -22799,7 +22814,7 @@
         <v>4295.4768508658699</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -22861,7 +22876,7 @@
         <v>4422.2604568606403</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -22921,7 +22936,7 @@
       </c>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -22981,7 +22996,7 @@
       </c>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -23041,7 +23056,7 @@
       </c>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
@@ -23103,7 +23118,7 @@
         <v>4133.7294920000004</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
@@ -23165,7 +23180,7 @@
         <v>4195.5732420000004</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
@@ -23227,7 +23242,7 @@
         <v>4340.6010740000002</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
@@ -23277,7 +23292,7 @@
         <v>4263.72080670172</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
@@ -23327,7 +23342,7 @@
         <v>4390.2483295051097</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>30</v>
       </c>
@@ -23377,7 +23392,7 @@
         <v>4546.1510478937598</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>30</v>
       </c>
@@ -23435,7 +23450,7 @@
         <v>4015.5980422009879</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
@@ -23493,7 +23508,7 @@
         <v>4017.3498912562295</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -23551,7 +23566,7 @@
         <v>4160.6904214107053</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -23613,7 +23628,7 @@
         <v>4528.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
@@ -23675,7 +23690,7 @@
         <v>4892</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>30</v>
       </c>
@@ -23743,45 +23758,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d00cabe-74f9-499f-ba26-1e0076cbc6cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2023-01-24T15:33:11+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24206,8 +24184,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d00cabe-74f9-499f-ba26-1e0076cbc6cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2023-01-24T15:33:11+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24220,22 +24235,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2755580c-7c5f-43cf-bd85-5c868b718937"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="3d00cabe-74f9-499f-ba26-1e0076cbc6cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24264,9 +24266,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E4C51-E6E8-4BFC-AC40-B34A2F9422A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09811017-C1A2-4699-BAC2-9BE21994A32F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2755580c-7c5f-43cf-bd85-5c868b718937"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="3d00cabe-74f9-499f-ba26-1e0076cbc6cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
